--- a/Classifier1/blood_reduced.xlsx
+++ b/Classifier1/blood_reduced.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="18">
   <si>
     <t>DrugFamily</t>
   </si>
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F463"/>
+  <dimension ref="A1:F462"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="E227" sqref="E227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4728,16 +4728,16 @@
         <v>8</v>
       </c>
       <c r="C230">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D230" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E230">
-        <v>2006</v>
+        <v>140</v>
       </c>
       <c r="F230">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -4748,16 +4748,16 @@
         <v>8</v>
       </c>
       <c r="C231">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D231" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E231">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F231">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -4768,16 +4768,16 @@
         <v>8</v>
       </c>
       <c r="C232">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D232" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E232">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="F232">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -4788,16 +4788,16 @@
         <v>8</v>
       </c>
       <c r="C233">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D233" t="s">
         <v>16</v>
       </c>
       <c r="E233">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="F233">
-        <v>110</v>
+        <v>72</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -4807,17 +4807,11 @@
       <c r="B234" t="s">
         <v>8</v>
       </c>
-      <c r="C234">
-        <v>46</v>
-      </c>
-      <c r="D234" t="s">
-        <v>16</v>
-      </c>
       <c r="E234">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F234">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -4827,11 +4821,17 @@
       <c r="B235" t="s">
         <v>8</v>
       </c>
+      <c r="C235">
+        <v>29</v>
+      </c>
+      <c r="D235" t="s">
+        <v>17</v>
+      </c>
       <c r="E235">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="F235">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -4842,16 +4842,16 @@
         <v>8</v>
       </c>
       <c r="C236">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D236" t="s">
         <v>17</v>
       </c>
       <c r="E236">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="F236">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -4862,16 +4862,16 @@
         <v>8</v>
       </c>
       <c r="C237">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D237" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E237">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="F237">
-        <v>85</v>
+        <v>120</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -4881,17 +4881,11 @@
       <c r="B238" t="s">
         <v>8</v>
       </c>
-      <c r="C238">
-        <v>41</v>
-      </c>
-      <c r="D238" t="s">
-        <v>16</v>
-      </c>
       <c r="E238">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="F238">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -4901,11 +4895,17 @@
       <c r="B239" t="s">
         <v>8</v>
       </c>
+      <c r="C239">
+        <v>59</v>
+      </c>
+      <c r="D239" t="s">
+        <v>17</v>
+      </c>
       <c r="E239">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="F239">
-        <v>105</v>
+        <v>65</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -4916,16 +4916,16 @@
         <v>8</v>
       </c>
       <c r="C240">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D240" t="s">
         <v>17</v>
       </c>
       <c r="E240">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="F240">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -4936,16 +4936,13 @@
         <v>8</v>
       </c>
       <c r="C241">
-        <v>46</v>
-      </c>
-      <c r="D241" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E241">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F241">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -4956,13 +4953,16 @@
         <v>8</v>
       </c>
       <c r="C242">
-        <v>27</v>
+        <v>42</v>
+      </c>
+      <c r="D242" t="s">
+        <v>16</v>
       </c>
       <c r="E242">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F242">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -4973,16 +4973,16 @@
         <v>8</v>
       </c>
       <c r="C243">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D243" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E243">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="F243">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -4993,16 +4993,13 @@
         <v>8</v>
       </c>
       <c r="C244">
-        <v>56</v>
-      </c>
-      <c r="D244" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="E244">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="F244">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -5013,13 +5010,13 @@
         <v>8</v>
       </c>
       <c r="C245">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E245">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="F245">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -5030,13 +5027,16 @@
         <v>8</v>
       </c>
       <c r="C246">
-        <v>28</v>
+        <v>41</v>
+      </c>
+      <c r="D246" t="s">
+        <v>17</v>
       </c>
       <c r="E246">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="F246">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -5047,7 +5047,7 @@
         <v>8</v>
       </c>
       <c r="C247">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D247" t="s">
         <v>17</v>
@@ -5056,7 +5056,7 @@
         <v>105</v>
       </c>
       <c r="F247">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -5067,7 +5067,7 @@
         <v>8</v>
       </c>
       <c r="C248">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D248" t="s">
         <v>17</v>
@@ -5087,16 +5087,13 @@
         <v>8</v>
       </c>
       <c r="C249">
-        <v>59</v>
-      </c>
-      <c r="D249" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E249">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="F249">
-        <v>65</v>
+        <v>110</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -5107,13 +5104,16 @@
         <v>8</v>
       </c>
       <c r="C250">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="D250" t="s">
+        <v>17</v>
       </c>
       <c r="E250">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F250">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -5124,16 +5124,16 @@
         <v>8</v>
       </c>
       <c r="C251">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D251" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E251">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="F251">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -5144,16 +5144,13 @@
         <v>8</v>
       </c>
       <c r="C252">
-        <v>47</v>
-      </c>
-      <c r="D252" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E252">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="F252">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -5164,13 +5161,16 @@
         <v>8</v>
       </c>
       <c r="C253">
-        <v>64</v>
+        <v>53</v>
+      </c>
+      <c r="D253" t="s">
+        <v>16</v>
       </c>
       <c r="E253">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F253">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -5181,16 +5181,13 @@
         <v>8</v>
       </c>
       <c r="C254">
-        <v>53</v>
-      </c>
-      <c r="D254" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E254">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F254">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -5201,13 +5198,13 @@
         <v>8</v>
       </c>
       <c r="C255">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="E255">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="F255">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -5218,13 +5215,16 @@
         <v>8</v>
       </c>
       <c r="C256">
-        <v>59</v>
+        <v>47</v>
+      </c>
+      <c r="D256" t="s">
+        <v>17</v>
       </c>
       <c r="E256">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="F256">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -5234,17 +5234,14 @@
       <c r="B257" t="s">
         <v>8</v>
       </c>
-      <c r="C257">
-        <v>47</v>
-      </c>
       <c r="D257" t="s">
         <v>17</v>
       </c>
       <c r="E257">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="F257">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -5254,14 +5251,17 @@
       <c r="B258" t="s">
         <v>8</v>
       </c>
+      <c r="C258">
+        <v>36</v>
+      </c>
       <c r="D258" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E258">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="F258">
-        <v>60</v>
+        <v>95</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -5272,16 +5272,16 @@
         <v>8</v>
       </c>
       <c r="C259">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D259" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E259">
         <v>130</v>
       </c>
       <c r="F259">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -5292,13 +5292,13 @@
         <v>8</v>
       </c>
       <c r="C260">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D260" t="s">
         <v>17</v>
       </c>
       <c r="E260">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F260">
         <v>85</v>
@@ -5312,16 +5312,16 @@
         <v>8</v>
       </c>
       <c r="C261">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D261" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E261">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="F261">
-        <v>85</v>
+        <v>112</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -5332,16 +5332,16 @@
         <v>8</v>
       </c>
       <c r="C262">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D262" t="s">
         <v>16</v>
       </c>
       <c r="E262">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F262">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -5351,17 +5351,11 @@
       <c r="B263" t="s">
         <v>8</v>
       </c>
-      <c r="C263">
-        <v>27</v>
-      </c>
-      <c r="D263" t="s">
-        <v>16</v>
-      </c>
       <c r="E263">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="F263">
-        <v>90</v>
+        <v>38</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -5371,11 +5365,17 @@
       <c r="B264" t="s">
         <v>8</v>
       </c>
+      <c r="C264">
+        <v>33</v>
+      </c>
+      <c r="D264" t="s">
+        <v>16</v>
+      </c>
       <c r="E264">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="F264">
-        <v>38</v>
+        <v>115</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -5386,16 +5386,16 @@
         <v>8</v>
       </c>
       <c r="C265">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D265" t="s">
         <v>16</v>
       </c>
       <c r="E265">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="F265">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -5406,16 +5406,16 @@
         <v>8</v>
       </c>
       <c r="C266">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D266" t="s">
         <v>16</v>
       </c>
       <c r="E266">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="F266">
-        <v>126</v>
+        <v>90</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -5426,16 +5426,16 @@
         <v>8</v>
       </c>
       <c r="C267">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D267" t="s">
         <v>16</v>
       </c>
       <c r="E267">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="F267">
-        <v>90</v>
+        <v>114</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -5446,16 +5446,16 @@
         <v>8</v>
       </c>
       <c r="C268">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D268" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E268">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="F268">
-        <v>114</v>
+        <v>80</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -5466,16 +5466,16 @@
         <v>8</v>
       </c>
       <c r="C269">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D269" t="s">
         <v>17</v>
       </c>
       <c r="E269">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F269">
-        <v>80</v>
+        <v>150</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -5486,16 +5486,13 @@
         <v>8</v>
       </c>
       <c r="C270">
-        <v>40</v>
-      </c>
-      <c r="D270" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E270">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F270">
-        <v>150</v>
+        <v>86</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -5505,14 +5502,11 @@
       <c r="B271" t="s">
         <v>8</v>
       </c>
-      <c r="C271">
-        <v>38</v>
-      </c>
       <c r="E271">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F271">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -5522,11 +5516,14 @@
       <c r="B272" t="s">
         <v>8</v>
       </c>
+      <c r="D272" t="s">
+        <v>16</v>
+      </c>
       <c r="E272">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F272">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -5536,14 +5533,11 @@
       <c r="B273" t="s">
         <v>8</v>
       </c>
-      <c r="D273" t="s">
-        <v>16</v>
-      </c>
       <c r="E273">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="F273">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -5553,11 +5547,17 @@
       <c r="B274" t="s">
         <v>8</v>
       </c>
+      <c r="C274">
+        <v>34</v>
+      </c>
+      <c r="D274" t="s">
+        <v>16</v>
+      </c>
       <c r="E274">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F274">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -5568,16 +5568,16 @@
         <v>8</v>
       </c>
       <c r="C275">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D275" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E275">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F275">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -5588,16 +5588,13 @@
         <v>8</v>
       </c>
       <c r="C276">
-        <v>46</v>
-      </c>
-      <c r="D276" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E276">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="F276">
-        <v>65</v>
+        <v>140</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -5608,13 +5605,16 @@
         <v>8</v>
       </c>
       <c r="C277">
-        <v>40</v>
+        <v>79</v>
+      </c>
+      <c r="D277" t="s">
+        <v>17</v>
       </c>
       <c r="E277">
         <v>180</v>
       </c>
       <c r="F277">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -5625,7 +5625,7 @@
         <v>8</v>
       </c>
       <c r="C278">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="D278" t="s">
         <v>17</v>
@@ -5634,7 +5634,7 @@
         <v>180</v>
       </c>
       <c r="F278">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -5645,16 +5645,16 @@
         <v>8</v>
       </c>
       <c r="C279">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D279" t="s">
         <v>17</v>
       </c>
       <c r="E279">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="F279">
-        <v>140</v>
+        <v>65</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -5665,16 +5665,16 @@
         <v>8</v>
       </c>
       <c r="C280">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D280" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E280">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="F280">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -5685,13 +5685,13 @@
         <v>8</v>
       </c>
       <c r="C281">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="D281" t="s">
         <v>16</v>
       </c>
       <c r="E281">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F281">
         <v>80</v>
@@ -5705,16 +5705,16 @@
         <v>8</v>
       </c>
       <c r="C282">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D282" t="s">
         <v>16</v>
       </c>
       <c r="E282">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F282">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -5725,16 +5725,16 @@
         <v>8</v>
       </c>
       <c r="C283">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D283" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E283">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="F283">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -5745,16 +5745,16 @@
         <v>8</v>
       </c>
       <c r="C284">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D284" t="s">
         <v>17</v>
       </c>
       <c r="E284">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="F284">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -5765,16 +5765,16 @@
         <v>8</v>
       </c>
       <c r="C285">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D285" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E285">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F285">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -5785,16 +5785,13 @@
         <v>8</v>
       </c>
       <c r="C286">
-        <v>52</v>
-      </c>
-      <c r="D286" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E286">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="F286">
-        <v>105</v>
+        <v>75</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -5804,14 +5801,14 @@
       <c r="B287" t="s">
         <v>8</v>
       </c>
-      <c r="C287">
-        <v>28</v>
+      <c r="D287" t="s">
+        <v>17</v>
       </c>
       <c r="E287">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="F287">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -5821,14 +5818,17 @@
       <c r="B288" t="s">
         <v>8</v>
       </c>
+      <c r="C288">
+        <v>58</v>
+      </c>
       <c r="D288" t="s">
         <v>17</v>
       </c>
       <c r="E288">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="F288">
-        <v>95</v>
+        <v>65</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -5839,16 +5839,16 @@
         <v>8</v>
       </c>
       <c r="C289">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D289" t="s">
         <v>17</v>
       </c>
       <c r="E289">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="F289">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -5859,16 +5859,16 @@
         <v>8</v>
       </c>
       <c r="C290">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D290" t="s">
         <v>17</v>
       </c>
       <c r="E290">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="F290">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
@@ -5879,16 +5879,16 @@
         <v>8</v>
       </c>
       <c r="C291">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D291" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E291">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F291">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -5898,17 +5898,11 @@
       <c r="B292" t="s">
         <v>8</v>
       </c>
-      <c r="C292">
-        <v>41</v>
-      </c>
-      <c r="D292" t="s">
-        <v>16</v>
-      </c>
       <c r="E292">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F292">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -5918,11 +5912,17 @@
       <c r="B293" t="s">
         <v>8</v>
       </c>
+      <c r="C293">
+        <v>34</v>
+      </c>
+      <c r="D293" t="s">
+        <v>17</v>
+      </c>
       <c r="E293">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="F293">
-        <v>58</v>
+        <v>124</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -5932,17 +5932,14 @@
       <c r="B294" t="s">
         <v>8</v>
       </c>
-      <c r="C294">
-        <v>34</v>
-      </c>
       <c r="D294" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E294">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F294">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -5952,14 +5949,17 @@
       <c r="B295" t="s">
         <v>8</v>
       </c>
+      <c r="C295">
+        <v>37</v>
+      </c>
       <c r="D295" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E295">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="F295">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -5970,16 +5970,16 @@
         <v>8</v>
       </c>
       <c r="C296">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D296" t="s">
         <v>17</v>
       </c>
       <c r="E296">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F296">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
@@ -5990,16 +5990,16 @@
         <v>8</v>
       </c>
       <c r="C297">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D297" t="s">
         <v>17</v>
       </c>
       <c r="E297">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F297">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
@@ -6009,17 +6009,11 @@
       <c r="B298" t="s">
         <v>8</v>
       </c>
-      <c r="C298">
-        <v>64</v>
-      </c>
-      <c r="D298" t="s">
-        <v>17</v>
-      </c>
       <c r="E298">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="F298">
-        <v>72</v>
+        <v>126</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -6029,11 +6023,17 @@
       <c r="B299" t="s">
         <v>8</v>
       </c>
+      <c r="C299">
+        <v>24</v>
+      </c>
+      <c r="D299" t="s">
+        <v>16</v>
+      </c>
       <c r="E299">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="F299">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -6044,16 +6044,16 @@
         <v>8</v>
       </c>
       <c r="C300">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="D300" t="s">
         <v>16</v>
       </c>
       <c r="E300">
-        <v>179</v>
+        <v>234</v>
       </c>
       <c r="F300">
-        <v>140</v>
+        <v>198</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -6064,16 +6064,16 @@
         <v>8</v>
       </c>
       <c r="C301">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="D301" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E301">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F301">
-        <v>198</v>
+        <v>120</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -6084,16 +6084,16 @@
         <v>8</v>
       </c>
       <c r="C302">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D302" t="s">
         <v>17</v>
       </c>
       <c r="E302">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="F302">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
@@ -6103,12 +6103,6 @@
       <c r="B303" t="s">
         <v>8</v>
       </c>
-      <c r="C303">
-        <v>34</v>
-      </c>
-      <c r="D303" t="s">
-        <v>17</v>
-      </c>
       <c r="E303">
         <v>174</v>
       </c>
@@ -6123,11 +6117,17 @@
       <c r="B304" t="s">
         <v>8</v>
       </c>
+      <c r="C304">
+        <v>65</v>
+      </c>
+      <c r="D304" t="s">
+        <v>16</v>
+      </c>
       <c r="E304">
-        <v>174</v>
+        <v>259</v>
       </c>
       <c r="F304">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
@@ -6138,16 +6138,16 @@
         <v>8</v>
       </c>
       <c r="C305">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D305" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E305">
-        <v>259</v>
+        <v>148</v>
       </c>
       <c r="F305">
-        <v>140</v>
+        <v>102</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
@@ -6158,16 +6158,16 @@
         <v>8</v>
       </c>
       <c r="C306">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D306" t="s">
         <v>17</v>
       </c>
       <c r="E306">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F306">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -6177,17 +6177,11 @@
       <c r="B307" t="s">
         <v>8</v>
       </c>
-      <c r="C307">
-        <v>33</v>
-      </c>
-      <c r="D307" t="s">
-        <v>17</v>
-      </c>
       <c r="E307">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F307">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -6198,10 +6192,10 @@
         <v>8</v>
       </c>
       <c r="E308">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="F308">
-        <v>85</v>
+        <v>120</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -6211,11 +6205,14 @@
       <c r="B309" t="s">
         <v>8</v>
       </c>
+      <c r="C309">
+        <v>53</v>
+      </c>
       <c r="E309">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F309">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -6226,13 +6223,16 @@
         <v>8</v>
       </c>
       <c r="C310">
-        <v>53</v>
+        <v>19</v>
+      </c>
+      <c r="D310" t="s">
+        <v>16</v>
       </c>
       <c r="E310">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F310">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -6243,16 +6243,16 @@
         <v>8</v>
       </c>
       <c r="C311">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D311" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E311">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F311">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -6263,16 +6263,16 @@
         <v>8</v>
       </c>
       <c r="C312">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D312" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E312">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="F312">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
@@ -6283,16 +6283,16 @@
         <v>8</v>
       </c>
       <c r="C313">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D313" t="s">
         <v>16</v>
       </c>
       <c r="E313">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="F313">
-        <v>105</v>
+        <v>72</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -6303,16 +6303,16 @@
         <v>8</v>
       </c>
       <c r="C314">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D314" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E314">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="F314">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -6322,17 +6322,11 @@
       <c r="B315" t="s">
         <v>8</v>
       </c>
-      <c r="C315">
-        <v>26</v>
-      </c>
-      <c r="D315" t="s">
-        <v>17</v>
-      </c>
       <c r="E315">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="F315">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -6342,11 +6336,17 @@
       <c r="B316" t="s">
         <v>8</v>
       </c>
+      <c r="C316">
+        <v>54</v>
+      </c>
+      <c r="D316" t="s">
+        <v>16</v>
+      </c>
       <c r="E316">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F316">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
@@ -6357,16 +6357,16 @@
         <v>8</v>
       </c>
       <c r="C317">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D317" t="s">
         <v>16</v>
       </c>
       <c r="E317">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F317">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
@@ -6377,16 +6377,13 @@
         <v>8</v>
       </c>
       <c r="C318">
-        <v>51</v>
-      </c>
-      <c r="D318" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E318">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="F318">
-        <v>110</v>
+        <v>70</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -6397,13 +6394,16 @@
         <v>8</v>
       </c>
       <c r="C319">
-        <v>26</v>
+        <v>37</v>
+      </c>
+      <c r="D319" t="s">
+        <v>17</v>
       </c>
       <c r="E319">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F319">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -6413,17 +6413,11 @@
       <c r="B320" t="s">
         <v>8</v>
       </c>
-      <c r="C320">
-        <v>37</v>
-      </c>
-      <c r="D320" t="s">
-        <v>17</v>
-      </c>
       <c r="E320">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="F320">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
@@ -6433,11 +6427,17 @@
       <c r="B321" t="s">
         <v>8</v>
       </c>
+      <c r="C321">
+        <v>31</v>
+      </c>
+      <c r="D321" t="s">
+        <v>16</v>
+      </c>
       <c r="E321">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="F321">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
@@ -6447,17 +6447,14 @@
       <c r="B322" t="s">
         <v>8</v>
       </c>
-      <c r="C322">
-        <v>31</v>
-      </c>
       <c r="D322" t="s">
         <v>16</v>
       </c>
       <c r="E322">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F322">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
@@ -6467,14 +6464,17 @@
       <c r="B323" t="s">
         <v>8</v>
       </c>
+      <c r="C323">
+        <v>37</v>
+      </c>
       <c r="D323" t="s">
         <v>16</v>
       </c>
       <c r="E323">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="F323">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
@@ -6485,16 +6485,16 @@
         <v>8</v>
       </c>
       <c r="C324">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D324" t="s">
         <v>16</v>
       </c>
       <c r="E324">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F324">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
@@ -6505,16 +6505,16 @@
         <v>8</v>
       </c>
       <c r="C325">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D325" t="s">
         <v>16</v>
       </c>
       <c r="E325">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="F325">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
@@ -6525,36 +6525,36 @@
         <v>8</v>
       </c>
       <c r="C326">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D326" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E326">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="F326">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B327" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C327">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D327" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E327">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="F327">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
@@ -6565,16 +6565,16 @@
         <v>10</v>
       </c>
       <c r="C328">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D328" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E328">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="F328">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
@@ -6585,13 +6585,13 @@
         <v>10</v>
       </c>
       <c r="C329">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="D329" t="s">
         <v>17</v>
       </c>
       <c r="E329">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="F329">
         <v>80</v>
@@ -6605,16 +6605,16 @@
         <v>10</v>
       </c>
       <c r="C330">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D330" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E330">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="F330">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
@@ -6624,17 +6624,11 @@
       <c r="B331" t="s">
         <v>10</v>
       </c>
-      <c r="C331">
-        <v>55</v>
-      </c>
-      <c r="D331" t="s">
-        <v>16</v>
-      </c>
       <c r="E331">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="F331">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
@@ -6644,11 +6638,17 @@
       <c r="B332" t="s">
         <v>10</v>
       </c>
+      <c r="C332">
+        <v>21</v>
+      </c>
+      <c r="D332" t="s">
+        <v>16</v>
+      </c>
       <c r="E332">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F332">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
@@ -6659,16 +6659,16 @@
         <v>10</v>
       </c>
       <c r="C333">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D333" t="s">
         <v>16</v>
       </c>
       <c r="E333">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="F333">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
@@ -6678,17 +6678,14 @@
       <c r="B334" t="s">
         <v>10</v>
       </c>
-      <c r="C334">
-        <v>43</v>
-      </c>
       <c r="D334" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E334">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="F334">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
@@ -6699,13 +6696,13 @@
         <v>10</v>
       </c>
       <c r="D335" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E335">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F335">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
@@ -6715,14 +6712,17 @@
       <c r="B336" t="s">
         <v>10</v>
       </c>
+      <c r="C336">
+        <v>78</v>
+      </c>
       <c r="D336" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E336">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="F336">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
@@ -6733,16 +6733,16 @@
         <v>10</v>
       </c>
       <c r="C337">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="D337" t="s">
         <v>17</v>
       </c>
       <c r="E337">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="F337">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
@@ -6753,16 +6753,16 @@
         <v>10</v>
       </c>
       <c r="C338">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D338" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E338">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="F338">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
@@ -6772,17 +6772,11 @@
       <c r="B339" t="s">
         <v>10</v>
       </c>
-      <c r="C339">
-        <v>39</v>
-      </c>
-      <c r="D339" t="s">
-        <v>16</v>
-      </c>
       <c r="E339">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="F339">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
@@ -6793,10 +6787,10 @@
         <v>10</v>
       </c>
       <c r="E340">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="F340">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
@@ -6806,11 +6800,17 @@
       <c r="B341" t="s">
         <v>10</v>
       </c>
+      <c r="C341">
+        <v>36</v>
+      </c>
+      <c r="D341" t="s">
+        <v>17</v>
+      </c>
       <c r="E341">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="F341">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
@@ -6821,16 +6821,16 @@
         <v>10</v>
       </c>
       <c r="C342">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D342" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E342">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="F342">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
@@ -6840,17 +6840,14 @@
       <c r="B343" t="s">
         <v>10</v>
       </c>
-      <c r="C343">
-        <v>63</v>
-      </c>
       <c r="D343" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E343">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F343">
-        <v>90</v>
+        <v>117</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
@@ -6860,14 +6857,11 @@
       <c r="B344" t="s">
         <v>10</v>
       </c>
-      <c r="D344" t="s">
-        <v>17</v>
-      </c>
       <c r="E344">
-        <v>168</v>
+        <v>250</v>
       </c>
       <c r="F344">
-        <v>117</v>
+        <v>150</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
@@ -6877,11 +6871,17 @@
       <c r="B345" t="s">
         <v>10</v>
       </c>
+      <c r="C345">
+        <v>36</v>
+      </c>
+      <c r="D345" t="s">
+        <v>16</v>
+      </c>
       <c r="E345">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F345">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
@@ -6892,16 +6892,16 @@
         <v>10</v>
       </c>
       <c r="C346">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D346" t="s">
         <v>16</v>
       </c>
       <c r="E346">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="F346">
-        <v>155</v>
+        <v>110</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
@@ -6912,16 +6912,16 @@
         <v>10</v>
       </c>
       <c r="C347">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D347" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E347">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="F347">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
@@ -6932,16 +6932,16 @@
         <v>10</v>
       </c>
       <c r="C348">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D348" t="s">
         <v>17</v>
       </c>
       <c r="E348">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F348">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
@@ -6952,7 +6952,7 @@
         <v>10</v>
       </c>
       <c r="C349">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="D349" t="s">
         <v>17</v>
@@ -6961,7 +6961,7 @@
         <v>160</v>
       </c>
       <c r="F349">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
@@ -6971,17 +6971,11 @@
       <c r="B350" t="s">
         <v>10</v>
       </c>
-      <c r="C350">
-        <v>65</v>
-      </c>
-      <c r="D350" t="s">
-        <v>17</v>
-      </c>
       <c r="E350">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F350">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
@@ -6991,11 +6985,17 @@
       <c r="B351" t="s">
         <v>10</v>
       </c>
+      <c r="C351">
+        <v>70</v>
+      </c>
+      <c r="D351" t="s">
+        <v>17</v>
+      </c>
       <c r="E351">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="F351">
-        <v>90</v>
+        <v>64</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
@@ -7005,17 +7005,14 @@
       <c r="B352" t="s">
         <v>10</v>
       </c>
-      <c r="C352">
-        <v>70</v>
-      </c>
       <c r="D352" t="s">
         <v>17</v>
       </c>
       <c r="E352">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="F352">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
@@ -7025,11 +7022,14 @@
       <c r="B353" t="s">
         <v>10</v>
       </c>
+      <c r="C353">
+        <v>31</v>
+      </c>
       <c r="D353" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E353">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="F353">
         <v>85</v>
@@ -7043,16 +7043,13 @@
         <v>10</v>
       </c>
       <c r="C354">
-        <v>31</v>
-      </c>
-      <c r="D354" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="E354">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="F354">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
@@ -7063,13 +7060,13 @@
         <v>10</v>
       </c>
       <c r="C355">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E355">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="F355">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
@@ -7080,13 +7077,16 @@
         <v>10</v>
       </c>
       <c r="C356">
-        <v>69</v>
+        <v>55</v>
+      </c>
+      <c r="D356" t="s">
+        <v>16</v>
       </c>
       <c r="E356">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="F356">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
@@ -7097,16 +7097,16 @@
         <v>10</v>
       </c>
       <c r="C357">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D357" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E357">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F357">
-        <v>93</v>
+        <v>65</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
@@ -7117,16 +7117,16 @@
         <v>10</v>
       </c>
       <c r="C358">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="D358" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E358">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="F358">
-        <v>65</v>
+        <v>116</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
@@ -7137,16 +7137,16 @@
         <v>10</v>
       </c>
       <c r="C359">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D359" t="s">
         <v>16</v>
       </c>
       <c r="E359">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="F359">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
@@ -7157,16 +7157,16 @@
         <v>10</v>
       </c>
       <c r="C360">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D360" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E360">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="F360">
-        <v>135</v>
+        <v>110</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
@@ -7177,16 +7177,16 @@
         <v>10</v>
       </c>
       <c r="C361">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D361" t="s">
         <v>17</v>
       </c>
       <c r="E361">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="F361">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
@@ -7196,17 +7196,14 @@
       <c r="B362" t="s">
         <v>10</v>
       </c>
-      <c r="C362">
-        <v>60</v>
-      </c>
       <c r="D362" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E362">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="F362">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
@@ -7216,14 +7213,17 @@
       <c r="B363" t="s">
         <v>10</v>
       </c>
+      <c r="C363">
+        <v>46</v>
+      </c>
       <c r="D363" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E363">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="F363">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
@@ -7234,16 +7234,13 @@
         <v>10</v>
       </c>
       <c r="C364">
-        <v>46</v>
-      </c>
-      <c r="D364" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="E364">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="F364">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
@@ -7254,13 +7251,16 @@
         <v>10</v>
       </c>
       <c r="C365">
-        <v>76</v>
+        <v>31</v>
+      </c>
+      <c r="D365" t="s">
+        <v>17</v>
       </c>
       <c r="E365">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F365">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
@@ -7271,16 +7271,16 @@
         <v>10</v>
       </c>
       <c r="C366">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D366" t="s">
         <v>17</v>
       </c>
       <c r="E366">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="F366">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
@@ -7291,16 +7291,16 @@
         <v>10</v>
       </c>
       <c r="C367">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D367" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E367">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="F367">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
@@ -7311,16 +7311,16 @@
         <v>10</v>
       </c>
       <c r="C368">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D368" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E368">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="F368">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
@@ -7331,7 +7331,7 @@
         <v>10</v>
       </c>
       <c r="C369">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D369" t="s">
         <v>17</v>
@@ -7351,16 +7351,16 @@
         <v>10</v>
       </c>
       <c r="C370">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D370" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E370">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="F370">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
@@ -7371,16 +7371,16 @@
         <v>10</v>
       </c>
       <c r="C371">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D371" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E371">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="F371">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
@@ -7391,16 +7391,16 @@
         <v>10</v>
       </c>
       <c r="C372">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D372" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E372">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="F372">
-        <v>80</v>
+        <v>129</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
@@ -7411,16 +7411,13 @@
         <v>10</v>
       </c>
       <c r="C373">
-        <v>72</v>
-      </c>
-      <c r="D373" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="E373">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="F373">
-        <v>129</v>
+        <v>80</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
@@ -7431,10 +7428,13 @@
         <v>10</v>
       </c>
       <c r="C374">
-        <v>61</v>
+        <v>32</v>
+      </c>
+      <c r="D374" t="s">
+        <v>17</v>
       </c>
       <c r="E374">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="F374">
         <v>80</v>
@@ -7448,16 +7448,13 @@
         <v>10</v>
       </c>
       <c r="C375">
-        <v>32</v>
-      </c>
-      <c r="D375" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="E375">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="F375">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
@@ -7468,13 +7465,16 @@
         <v>10</v>
       </c>
       <c r="C376">
-        <v>70</v>
+        <v>48</v>
+      </c>
+      <c r="D376" t="s">
+        <v>17</v>
       </c>
       <c r="E376">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F376">
-        <v>93</v>
+        <v>170</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
@@ -7485,16 +7485,16 @@
         <v>10</v>
       </c>
       <c r="C377">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D377" t="s">
         <v>17</v>
       </c>
       <c r="E377">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="F377">
-        <v>170</v>
+        <v>92</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
@@ -7505,16 +7505,16 @@
         <v>10</v>
       </c>
       <c r="C378">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D378" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E378">
-        <v>143</v>
+        <v>295</v>
       </c>
       <c r="F378">
-        <v>92</v>
+        <v>135</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
@@ -7524,17 +7524,14 @@
       <c r="B379" t="s">
         <v>10</v>
       </c>
-      <c r="C379">
-        <v>72</v>
-      </c>
       <c r="D379" t="s">
         <v>16</v>
       </c>
       <c r="E379">
-        <v>295</v>
+        <v>210</v>
       </c>
       <c r="F379">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
@@ -7544,14 +7541,17 @@
       <c r="B380" t="s">
         <v>10</v>
       </c>
+      <c r="C380">
+        <v>53</v>
+      </c>
       <c r="D380" t="s">
         <v>16</v>
       </c>
       <c r="E380">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="F380">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
@@ -7561,17 +7561,14 @@
       <c r="B381" t="s">
         <v>10</v>
       </c>
-      <c r="C381">
-        <v>53</v>
-      </c>
       <c r="D381" t="s">
         <v>16</v>
       </c>
       <c r="E381">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="F381">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
@@ -7581,14 +7578,17 @@
       <c r="B382" t="s">
         <v>10</v>
       </c>
+      <c r="C382">
+        <v>65</v>
+      </c>
       <c r="D382" t="s">
         <v>16</v>
       </c>
       <c r="E382">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="F382">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
@@ -7598,17 +7598,11 @@
       <c r="B383" t="s">
         <v>10</v>
       </c>
-      <c r="C383">
-        <v>65</v>
-      </c>
-      <c r="D383" t="s">
-        <v>16</v>
-      </c>
       <c r="E383">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F383">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
@@ -7618,11 +7612,17 @@
       <c r="B384" t="s">
         <v>10</v>
       </c>
+      <c r="C384">
+        <v>69</v>
+      </c>
+      <c r="D384" t="s">
+        <v>17</v>
+      </c>
       <c r="E384">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="F384">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
@@ -7633,16 +7633,16 @@
         <v>10</v>
       </c>
       <c r="C385">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D385" t="s">
         <v>17</v>
       </c>
       <c r="E385">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="F385">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
@@ -7653,16 +7653,16 @@
         <v>10</v>
       </c>
       <c r="C386">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D386" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E386">
+        <v>200</v>
+      </c>
+      <c r="F386">
         <v>110</v>
-      </c>
-      <c r="F386">
-        <v>77</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
@@ -7673,13 +7673,13 @@
         <v>10</v>
       </c>
       <c r="C387">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="D387" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E387">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="F387">
         <v>110</v>
@@ -7693,16 +7693,13 @@
         <v>10</v>
       </c>
       <c r="C388">
-        <v>23</v>
-      </c>
-      <c r="D388" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E388">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="F388">
-        <v>110</v>
+        <v>82</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
@@ -7713,13 +7710,16 @@
         <v>10</v>
       </c>
       <c r="C389">
-        <v>60</v>
+        <v>26</v>
+      </c>
+      <c r="D389" t="s">
+        <v>16</v>
       </c>
       <c r="E389">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="F389">
-        <v>82</v>
+        <v>110</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
@@ -7730,16 +7730,16 @@
         <v>10</v>
       </c>
       <c r="C390">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D390" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E390">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="F390">
-        <v>110</v>
+        <v>60</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
@@ -7749,17 +7749,11 @@
       <c r="B391" t="s">
         <v>10</v>
       </c>
-      <c r="C391">
-        <v>24</v>
-      </c>
-      <c r="D391" t="s">
-        <v>17</v>
-      </c>
       <c r="E391">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="F391">
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
@@ -7769,11 +7763,17 @@
       <c r="B392" t="s">
         <v>10</v>
       </c>
+      <c r="C392">
+        <v>62</v>
+      </c>
+      <c r="D392" t="s">
+        <v>16</v>
+      </c>
       <c r="E392">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="F392">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
@@ -7783,17 +7783,11 @@
       <c r="B393" t="s">
         <v>10</v>
       </c>
-      <c r="C393">
-        <v>62</v>
-      </c>
-      <c r="D393" t="s">
-        <v>16</v>
-      </c>
       <c r="E393">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="F393">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
@@ -7803,11 +7797,17 @@
       <c r="B394" t="s">
         <v>10</v>
       </c>
+      <c r="C394">
+        <v>45</v>
+      </c>
+      <c r="D394" t="s">
+        <v>17</v>
+      </c>
       <c r="E394">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F394">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
@@ -7818,13 +7818,13 @@
         <v>10</v>
       </c>
       <c r="C395">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D395" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E395">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F395">
         <v>110</v>
@@ -7838,7 +7838,7 @@
         <v>10</v>
       </c>
       <c r="C396">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D396" t="s">
         <v>16</v>
@@ -7858,16 +7858,16 @@
         <v>10</v>
       </c>
       <c r="C397">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D397" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E397">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="F397">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
@@ -7878,16 +7878,16 @@
         <v>10</v>
       </c>
       <c r="C398">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D398" t="s">
         <v>17</v>
       </c>
       <c r="E398">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="F398">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
@@ -7898,16 +7898,16 @@
         <v>10</v>
       </c>
       <c r="C399">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D399" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E399">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F399">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
@@ -7918,16 +7918,13 @@
         <v>10</v>
       </c>
       <c r="C400">
+        <v>58</v>
+      </c>
+      <c r="E400">
+        <v>130</v>
+      </c>
+      <c r="F400">
         <v>60</v>
-      </c>
-      <c r="D400" t="s">
-        <v>16</v>
-      </c>
-      <c r="E400">
-        <v>200</v>
-      </c>
-      <c r="F400">
-        <v>110</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
@@ -7938,13 +7935,16 @@
         <v>10</v>
       </c>
       <c r="C401">
-        <v>58</v>
+        <v>21</v>
+      </c>
+      <c r="D401" t="s">
+        <v>17</v>
       </c>
       <c r="E401">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="F401">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
@@ -7955,16 +7955,16 @@
         <v>10</v>
       </c>
       <c r="C402">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D402" t="s">
         <v>17</v>
       </c>
       <c r="E402">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="F402">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
@@ -7975,16 +7975,16 @@
         <v>10</v>
       </c>
       <c r="C403">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D403" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E403">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F403">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
@@ -7995,16 +7995,16 @@
         <v>10</v>
       </c>
       <c r="C404">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D404" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E404">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="F404">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
@@ -8015,16 +8015,16 @@
         <v>10</v>
       </c>
       <c r="C405">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D405" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E405">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="F405">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
@@ -8034,17 +8034,11 @@
       <c r="B406" t="s">
         <v>10</v>
       </c>
-      <c r="C406">
-        <v>60</v>
-      </c>
-      <c r="D406" t="s">
-        <v>16</v>
-      </c>
       <c r="E406">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="F406">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
@@ -8054,11 +8048,17 @@
       <c r="B407" t="s">
         <v>10</v>
       </c>
+      <c r="C407">
+        <v>51</v>
+      </c>
+      <c r="D407" t="s">
+        <v>17</v>
+      </c>
       <c r="E407">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="F407">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
@@ -8069,16 +8069,16 @@
         <v>10</v>
       </c>
       <c r="C408">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D408" t="s">
         <v>17</v>
       </c>
       <c r="E408">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="F408">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
@@ -8089,16 +8089,16 @@
         <v>10</v>
       </c>
       <c r="C409">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D409" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E409">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="F409">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
@@ -8108,17 +8108,14 @@
       <c r="B410" t="s">
         <v>10</v>
       </c>
-      <c r="C410">
-        <v>55</v>
-      </c>
       <c r="D410" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E410">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="F410">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
@@ -8128,14 +8125,17 @@
       <c r="B411" t="s">
         <v>10</v>
       </c>
+      <c r="C411">
+        <v>26</v>
+      </c>
       <c r="D411" t="s">
         <v>17</v>
       </c>
       <c r="E411">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F411">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
@@ -8145,17 +8145,11 @@
       <c r="B412" t="s">
         <v>10</v>
       </c>
-      <c r="C412">
-        <v>26</v>
-      </c>
-      <c r="D412" t="s">
-        <v>17</v>
-      </c>
       <c r="E412">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="F412">
-        <v>95</v>
+        <v>170</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
@@ -8165,11 +8159,14 @@
       <c r="B413" t="s">
         <v>10</v>
       </c>
+      <c r="D413" t="s">
+        <v>17</v>
+      </c>
       <c r="E413">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="F413">
-        <v>170</v>
+        <v>94</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
@@ -8179,14 +8176,17 @@
       <c r="B414" t="s">
         <v>10</v>
       </c>
+      <c r="C414">
+        <v>52</v>
+      </c>
       <c r="D414" t="s">
         <v>17</v>
       </c>
       <c r="E414">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="F414">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
@@ -8197,16 +8197,16 @@
         <v>10</v>
       </c>
       <c r="C415">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D415" t="s">
         <v>17</v>
       </c>
       <c r="E415">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="F415">
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
@@ -8217,16 +8217,16 @@
         <v>10</v>
       </c>
       <c r="C416">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D416" t="s">
         <v>17</v>
       </c>
       <c r="E416">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F416">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
@@ -8237,16 +8237,16 @@
         <v>10</v>
       </c>
       <c r="C417">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D417" t="s">
         <v>17</v>
       </c>
       <c r="E417">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="F417">
-        <v>105</v>
+        <v>160</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
@@ -8257,16 +8257,16 @@
         <v>10</v>
       </c>
       <c r="C418">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D418" t="s">
         <v>17</v>
       </c>
       <c r="E418">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="F418">
-        <v>160</v>
+        <v>95</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
@@ -8277,16 +8277,16 @@
         <v>10</v>
       </c>
       <c r="C419">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D419" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E419">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F419">
-        <v>95</v>
+        <v>128</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
@@ -8296,17 +8296,11 @@
       <c r="B420" t="s">
         <v>10</v>
       </c>
-      <c r="C420">
-        <v>46</v>
-      </c>
-      <c r="D420" t="s">
-        <v>16</v>
-      </c>
       <c r="E420">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="F420">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
@@ -8316,11 +8310,17 @@
       <c r="B421" t="s">
         <v>10</v>
       </c>
+      <c r="C421">
+        <v>21</v>
+      </c>
+      <c r="D421" t="s">
+        <v>17</v>
+      </c>
       <c r="E421">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="F421">
-        <v>120</v>
+        <v>92</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
@@ -8330,17 +8330,11 @@
       <c r="B422" t="s">
         <v>10</v>
       </c>
-      <c r="C422">
-        <v>21</v>
-      </c>
-      <c r="D422" t="s">
-        <v>17</v>
-      </c>
       <c r="E422">
-        <v>148</v>
+        <v>271</v>
       </c>
       <c r="F422">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
@@ -8350,11 +8344,17 @@
       <c r="B423" t="s">
         <v>10</v>
       </c>
+      <c r="C423">
+        <v>69</v>
+      </c>
+      <c r="D423" t="s">
+        <v>16</v>
+      </c>
       <c r="E423">
-        <v>271</v>
+        <v>201</v>
       </c>
       <c r="F423">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
@@ -8364,17 +8364,11 @@
       <c r="B424" t="s">
         <v>10</v>
       </c>
-      <c r="C424">
-        <v>69</v>
-      </c>
-      <c r="D424" t="s">
-        <v>16</v>
-      </c>
       <c r="E424">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="F424">
-        <v>77</v>
+        <v>96</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
@@ -8384,11 +8378,17 @@
       <c r="B425" t="s">
         <v>10</v>
       </c>
+      <c r="C425">
+        <v>50</v>
+      </c>
+      <c r="D425" t="s">
+        <v>17</v>
+      </c>
       <c r="E425">
         <v>160</v>
       </c>
       <c r="F425">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
@@ -8399,16 +8399,16 @@
         <v>10</v>
       </c>
       <c r="C426">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D426" t="s">
         <v>17</v>
       </c>
       <c r="E426">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="F426">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
@@ -8419,7 +8419,7 @@
         <v>10</v>
       </c>
       <c r="C427">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D427" t="s">
         <v>17</v>
@@ -8428,7 +8428,7 @@
         <v>130</v>
       </c>
       <c r="F427">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
@@ -8439,16 +8439,13 @@
         <v>10</v>
       </c>
       <c r="C428">
-        <v>37</v>
-      </c>
-      <c r="D428" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="E428">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="F428">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
@@ -8458,11 +8455,11 @@
       <c r="B429" t="s">
         <v>10</v>
       </c>
-      <c r="C429">
-        <v>47</v>
+      <c r="D429" t="s">
+        <v>17</v>
       </c>
       <c r="E429">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="F429">
         <v>90</v>
@@ -8475,14 +8472,17 @@
       <c r="B430" t="s">
         <v>10</v>
       </c>
+      <c r="C430">
+        <v>36</v>
+      </c>
       <c r="D430" t="s">
         <v>17</v>
       </c>
       <c r="E430">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F430">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
@@ -8493,16 +8493,16 @@
         <v>10</v>
       </c>
       <c r="C431">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D431" t="s">
         <v>17</v>
       </c>
       <c r="E431">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F431">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
@@ -8522,7 +8522,7 @@
         <v>160</v>
       </c>
       <c r="F432">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
@@ -8533,16 +8533,16 @@
         <v>10</v>
       </c>
       <c r="C433">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D433" t="s">
         <v>17</v>
       </c>
       <c r="E433">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="F433">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
@@ -8552,17 +8552,11 @@
       <c r="B434" t="s">
         <v>10</v>
       </c>
-      <c r="C434">
-        <v>18</v>
-      </c>
-      <c r="D434" t="s">
-        <v>17</v>
-      </c>
       <c r="E434">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="F434">
-        <v>127</v>
+        <v>90</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
@@ -8572,11 +8566,17 @@
       <c r="B435" t="s">
         <v>10</v>
       </c>
+      <c r="C435">
+        <v>74</v>
+      </c>
+      <c r="D435" t="s">
+        <v>16</v>
+      </c>
       <c r="E435">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="F435">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
@@ -8587,16 +8587,13 @@
         <v>10</v>
       </c>
       <c r="C436">
-        <v>74</v>
-      </c>
-      <c r="D436" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E436">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F436">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
@@ -8607,13 +8604,16 @@
         <v>10</v>
       </c>
       <c r="C437">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="D437" t="s">
+        <v>17</v>
       </c>
       <c r="E437">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="F437">
-        <v>92</v>
+        <v>120</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
@@ -8624,16 +8624,16 @@
         <v>10</v>
       </c>
       <c r="C438">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D438" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E438">
-        <v>200</v>
+        <v>122</v>
       </c>
       <c r="F438">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
@@ -8643,17 +8643,11 @@
       <c r="B439" t="s">
         <v>10</v>
       </c>
-      <c r="C439">
-        <v>37</v>
-      </c>
-      <c r="D439" t="s">
-        <v>16</v>
-      </c>
       <c r="E439">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="F439">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
@@ -8663,11 +8657,17 @@
       <c r="B440" t="s">
         <v>10</v>
       </c>
+      <c r="C440">
+        <v>59</v>
+      </c>
+      <c r="D440" t="s">
+        <v>17</v>
+      </c>
       <c r="E440">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="F440">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
@@ -8678,16 +8678,16 @@
         <v>10</v>
       </c>
       <c r="C441">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D441" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E441">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="F441">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
@@ -8697,17 +8697,14 @@
       <c r="B442" t="s">
         <v>10</v>
       </c>
-      <c r="C442">
-        <v>48</v>
-      </c>
       <c r="D442" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E442">
-        <v>211</v>
+        <v>150</v>
       </c>
       <c r="F442">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
@@ -8717,14 +8714,17 @@
       <c r="B443" t="s">
         <v>10</v>
       </c>
+      <c r="C443">
+        <v>21</v>
+      </c>
       <c r="D443" t="s">
         <v>17</v>
       </c>
       <c r="E443">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="F443">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
@@ -8735,16 +8735,16 @@
         <v>10</v>
       </c>
       <c r="C444">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="D444" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E444">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="F444">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
@@ -8755,16 +8755,16 @@
         <v>10</v>
       </c>
       <c r="C445">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D445" t="s">
         <v>16</v>
       </c>
       <c r="E445">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F445">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
@@ -8775,16 +8775,16 @@
         <v>10</v>
       </c>
       <c r="C446">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D446" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E446">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F446">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
@@ -8795,16 +8795,16 @@
         <v>10</v>
       </c>
       <c r="C447">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D447" t="s">
         <v>17</v>
       </c>
       <c r="E447">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="F447">
-        <v>72</v>
+        <v>95</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
@@ -8815,16 +8815,16 @@
         <v>10</v>
       </c>
       <c r="C448">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D448" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E448">
         <v>200</v>
       </c>
       <c r="F448">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
@@ -8834,14 +8834,11 @@
       <c r="B449" t="s">
         <v>10</v>
       </c>
-      <c r="C449">
-        <v>57</v>
-      </c>
       <c r="D449" t="s">
         <v>16</v>
       </c>
       <c r="E449">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="F449">
         <v>100</v>
@@ -8854,14 +8851,17 @@
       <c r="B450" t="s">
         <v>10</v>
       </c>
+      <c r="C450">
+        <v>47</v>
+      </c>
       <c r="D450" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E450">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="F450">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
@@ -8871,17 +8871,11 @@
       <c r="B451" t="s">
         <v>10</v>
       </c>
-      <c r="C451">
-        <v>47</v>
-      </c>
-      <c r="D451" t="s">
-        <v>17</v>
-      </c>
       <c r="E451">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F451">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
@@ -8892,10 +8886,10 @@
         <v>10</v>
       </c>
       <c r="E452">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F452">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
@@ -8905,11 +8899,17 @@
       <c r="B453" t="s">
         <v>10</v>
       </c>
+      <c r="C453">
+        <v>45</v>
+      </c>
+      <c r="D453" t="s">
+        <v>16</v>
+      </c>
       <c r="E453">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="F453">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
@@ -8919,17 +8919,11 @@
       <c r="B454" t="s">
         <v>10</v>
       </c>
-      <c r="C454">
-        <v>45</v>
-      </c>
-      <c r="D454" t="s">
-        <v>16</v>
-      </c>
       <c r="E454">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="F454">
-        <v>70</v>
+        <v>102</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
@@ -8939,11 +8933,17 @@
       <c r="B455" t="s">
         <v>10</v>
       </c>
+      <c r="C455">
+        <v>47</v>
+      </c>
+      <c r="D455" t="s">
+        <v>16</v>
+      </c>
       <c r="E455">
         <v>180</v>
       </c>
       <c r="F455">
-        <v>102</v>
+        <v>72</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
@@ -8954,16 +8954,16 @@
         <v>10</v>
       </c>
       <c r="C456">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D456" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E456">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="F456">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
@@ -8974,16 +8974,16 @@
         <v>10</v>
       </c>
       <c r="C457">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D457" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E457">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="F457">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
@@ -8994,16 +8994,16 @@
         <v>10</v>
       </c>
       <c r="C458">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D458" t="s">
         <v>16</v>
       </c>
       <c r="E458">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="F458">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
@@ -9014,16 +9014,16 @@
         <v>10</v>
       </c>
       <c r="C459">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D459" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E459">
         <v>148</v>
       </c>
       <c r="F459">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
@@ -9033,34 +9033,34 @@
       <c r="B460" t="s">
         <v>10</v>
       </c>
-      <c r="C460">
-        <v>27</v>
-      </c>
       <c r="D460" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E460">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="F460">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B461" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C461">
+        <v>49</v>
       </c>
       <c r="D461" t="s">
         <v>16</v>
       </c>
       <c r="E461">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F461">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
@@ -9071,35 +9071,15 @@
         <v>11</v>
       </c>
       <c r="C462">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D462" t="s">
         <v>16</v>
       </c>
       <c r="E462">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="F462">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A463" t="s">
-        <v>7</v>
-      </c>
-      <c r="B463" t="s">
-        <v>11</v>
-      </c>
-      <c r="C463">
-        <v>29</v>
-      </c>
-      <c r="D463" t="s">
-        <v>16</v>
-      </c>
-      <c r="E463">
-        <v>154</v>
-      </c>
-      <c r="F463">
         <v>105</v>
       </c>
     </row>
